--- a/BackTest/2020-01-13 BackTest SOC.xlsx
+++ b/BackTest/2020-01-13 BackTest SOC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-650834.9481114037</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-650834.9481114037</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-646648.2326114037</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-646648.2326114037</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-641648.2326114037</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-665951.1508114036</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-665951.1508114036</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-1097787.752635399</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-1091875.343876275</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-1094047.771876275</v>
       </c>
       <c r="H23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-1094047.771876275</v>
       </c>
       <c r="H24" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-1094047.771876275</v>
       </c>
       <c r="H25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-1094047.771876275</v>
       </c>
       <c r="H26" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-1097130.696476275</v>
       </c>
       <c r="H27" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-1097130.696476275</v>
       </c>
       <c r="H28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-1097130.696476275</v>
       </c>
       <c r="H29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-1095719.538076275</v>
       </c>
       <c r="H30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-1095489.940876275</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-1094078.782476275</v>
       </c>
       <c r="H32" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-1095719.538076275</v>
       </c>
       <c r="H35" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-1096589.538076275</v>
       </c>
       <c r="H36" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-1096589.538076275</v>
       </c>
       <c r="H37" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-1096589.538076275</v>
       </c>
       <c r="H38" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-1152011.543376275</v>
       </c>
       <c r="H39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-1146011.543376275</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-1146010.543376275</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-1146010.543376275</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-1144725.967704829</v>
       </c>
       <c r="H47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-1142291.934904829</v>
       </c>
       <c r="H48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-1283040.429904829</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-1276974.623804829</v>
       </c>
       <c r="H50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-1277019.623804829</v>
       </c>
       <c r="H51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-1276839.623804829</v>
       </c>
       <c r="H52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-1277082.195032483</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-1277051.195032483</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-1277051.195032483</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-1364578.594632482</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-1364578.594632482</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-1298374.905132482</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-1298374.905132482</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-1461139.296332482</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-1585832.835232482</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-1585832.835232482</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-1585832.835232482</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-1585832.835232482</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-1609970.368932482</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-1784240.912132482</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-1784240.912132482</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-1782404.926820365</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-1786431.081820365</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-1782451.846220365</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-1778583.579220365</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-1774557.424220365</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-1774457.424220365</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-1831827.377120365</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-1761001.264120365</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-1761001.264120365</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-1754912.264120365</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-1745302.500120365</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-1745302.500120365</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-1829442.287820365</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-1829442.287820365</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-1829277.150205686</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-1834983.596505686</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-1910133.627086726</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-1892829.936186726</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-1892829.936186726</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-1888727.510086726</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-1892006.671886726</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-1892006.671886726</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-1892006.671886726</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-1892006.671886726</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-1917130.327386726</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-1917077.427386726</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-1927336.189186726</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-1927336.189186726</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-1928833.015486726</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-1928756.649286726</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-1944282.329886726</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-1952971.399186726</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-1952971.399186726</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-1946833.046390168</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-1946885.974290168</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-1951271.917790168</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-2137547.866090168</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-2492086.821190168</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-2518700.138790168</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-2518700.138790168</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-2495481.019290168</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-2495481.019290168</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-2510773.887390168</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-2636180.328790168</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-2763440.118090168</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-2763739.427290168</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-2748188.181390168</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-2748188.181390168</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-2747415.799790168</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-2747415.799790168</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-2587868.262090168</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-2689259.423590168</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-2686808.548390168</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-3035221.078090168</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-3034396.078090168</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-3041129.100290168</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-3043182.061090168</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-3011408.819590168</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-3059104.943590167</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-3059104.943590167</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-3304548.120590168</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-3352255.977490168</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-4248764.311490168</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>-4382246.951274349</v>
       </c>
       <c r="H249" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -12397,10 +12397,14 @@
         <v>-7783100.657550234</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
-      </c>
-      <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I364" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="J364" t="n">
+        <v>15.18</v>
+      </c>
       <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
@@ -12430,11 +12434,19 @@
         <v>-7795992.967650235</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
-      </c>
-      <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I365" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="J365" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12463,11 +12475,19 @@
         <v>-7795895.826649585</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
-      </c>
-      <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I366" t="n">
+        <v>15.27</v>
+      </c>
+      <c r="J366" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -12496,11 +12516,19 @@
         <v>-7695360.971749585</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
-      </c>
-      <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I367" t="n">
+        <v>15.39</v>
+      </c>
+      <c r="J367" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -12529,11 +12557,19 @@
         <v>-7607180.131849585</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
-      </c>
-      <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I368" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="J368" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -12562,11 +12598,19 @@
         <v>-7602744.952849586</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
-      </c>
-      <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I369" t="n">
+        <v>15.55</v>
+      </c>
+      <c r="J369" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -12595,11 +12639,19 @@
         <v>-7577175.408845127</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
-      </c>
-      <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I370" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="J370" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -12631,8 +12683,14 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -12664,8 +12722,14 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -12697,8 +12761,14 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -12730,8 +12800,14 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -12763,8 +12839,14 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -12796,8 +12878,14 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -12829,8 +12917,14 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -12862,8 +12956,14 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -12895,8 +12995,14 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -12928,8 +13034,14 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -12961,8 +13073,14 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -12994,8 +13112,14 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13027,8 +13151,14 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13060,8 +13190,14 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13093,8 +13229,14 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13126,8 +13268,14 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13159,8 +13307,14 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13192,8 +13346,14 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13225,8 +13385,14 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13258,8 +13424,14 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13291,8 +13463,14 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13324,8 +13502,14 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13357,8 +13541,14 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13390,8 +13580,14 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -13423,8 +13619,14 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -13456,8 +13658,14 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -13489,8 +13697,14 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -13522,8 +13736,14 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -13552,15 +13772,17 @@
         <v>-7160653.253942563</v>
       </c>
       <c r="H399" t="n">
-        <v>2</v>
-      </c>
-      <c r="I399" t="n">
-        <v>15.52</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I399" t="inlineStr"/>
       <c r="J399" t="n">
-        <v>15.52</v>
-      </c>
-      <c r="K399" t="inlineStr"/>
+        <v>15.18</v>
+      </c>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -13593,11 +13815,11 @@
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="n">
-        <v>15.52</v>
+        <v>15.18</v>
       </c>
       <c r="K400" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L400" t="n">
@@ -13632,11 +13854,11 @@
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="n">
-        <v>15.52</v>
+        <v>15.18</v>
       </c>
       <c r="K401" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L401" t="n">
@@ -13670,8 +13892,14 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="J402" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -13703,8 +13931,14 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="J403" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -13736,8 +13970,14 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -13769,8 +14009,14 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -13802,8 +14048,14 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="J406" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -13835,8 +14087,14 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="J407" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -13868,8 +14126,14 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="J408" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -13898,15 +14162,17 @@
         <v>-6911692.504545107</v>
       </c>
       <c r="H409" t="n">
-        <v>2</v>
-      </c>
-      <c r="I409" t="n">
-        <v>15.56</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I409" t="inlineStr"/>
       <c r="J409" t="n">
-        <v>15.56</v>
-      </c>
-      <c r="K409" t="inlineStr"/>
+        <v>15.18</v>
+      </c>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -13935,17 +14201,15 @@
         <v>-6988993.579045108</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
-      </c>
-      <c r="I410" t="n">
-        <v>15.56</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I410" t="inlineStr"/>
       <c r="J410" t="n">
-        <v>15.56</v>
+        <v>15.18</v>
       </c>
       <c r="K410" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L410" t="n">
@@ -13976,17 +14240,15 @@
         <v>-6983222.788845108</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
-      </c>
-      <c r="I411" t="n">
-        <v>15.55</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I411" t="inlineStr"/>
       <c r="J411" t="n">
-        <v>15.56</v>
+        <v>15.18</v>
       </c>
       <c r="K411" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L411" t="n">
@@ -14017,15 +14279,17 @@
         <v>-6983322.788845108</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
-      </c>
-      <c r="I412" t="n">
-        <v>15.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I412" t="inlineStr"/>
       <c r="J412" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="K412" t="inlineStr"/>
+        <v>15.18</v>
+      </c>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14054,17 +14318,15 @@
         <v>-6983322.788845108</v>
       </c>
       <c r="H413" t="n">
-        <v>2</v>
-      </c>
-      <c r="I413" t="n">
-        <v>15.58</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I413" t="inlineStr"/>
       <c r="J413" t="n">
-        <v>15.7</v>
+        <v>15.18</v>
       </c>
       <c r="K413" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L413" t="n">
@@ -14095,17 +14357,15 @@
         <v>-6983222.788845108</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
-      </c>
-      <c r="I414" t="n">
-        <v>15.58</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I414" t="inlineStr"/>
       <c r="J414" t="n">
-        <v>15.7</v>
+        <v>15.18</v>
       </c>
       <c r="K414" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L414" t="n">
@@ -14139,8 +14399,14 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="J415" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14172,8 +14438,14 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="J416" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14202,15 +14474,17 @@
         <v>-6868966.743445108</v>
       </c>
       <c r="H417" t="n">
-        <v>2</v>
-      </c>
-      <c r="I417" t="n">
-        <v>15.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I417" t="inlineStr"/>
       <c r="J417" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="K417" t="inlineStr"/>
+        <v>15.18</v>
+      </c>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14239,17 +14513,15 @@
         <v>-6868966.743445108</v>
       </c>
       <c r="H418" t="n">
-        <v>2</v>
-      </c>
-      <c r="I418" t="n">
-        <v>15.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I418" t="inlineStr"/>
       <c r="J418" t="n">
-        <v>15.7</v>
+        <v>15.18</v>
       </c>
       <c r="K418" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L418" t="n">
@@ -14280,13 +14552,11 @@
         <v>-6868966.743445108</v>
       </c>
       <c r="H419" t="n">
-        <v>2</v>
-      </c>
-      <c r="I419" t="n">
-        <v>15.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I419" t="inlineStr"/>
       <c r="J419" t="n">
-        <v>15.7</v>
+        <v>15.18</v>
       </c>
       <c r="K419" t="inlineStr">
         <is>
@@ -14321,13 +14591,11 @@
         <v>-6868966.743445108</v>
       </c>
       <c r="H420" t="n">
-        <v>2</v>
-      </c>
-      <c r="I420" t="n">
-        <v>15.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I420" t="inlineStr"/>
       <c r="J420" t="n">
-        <v>15.7</v>
+        <v>15.18</v>
       </c>
       <c r="K420" t="inlineStr">
         <is>
@@ -14362,13 +14630,11 @@
         <v>-6868966.743445108</v>
       </c>
       <c r="H421" t="n">
-        <v>2</v>
-      </c>
-      <c r="I421" t="n">
-        <v>15.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I421" t="inlineStr"/>
       <c r="J421" t="n">
-        <v>15.7</v>
+        <v>15.18</v>
       </c>
       <c r="K421" t="inlineStr">
         <is>
@@ -14403,13 +14669,11 @@
         <v>-6868966.743445108</v>
       </c>
       <c r="H422" t="n">
-        <v>2</v>
-      </c>
-      <c r="I422" t="n">
-        <v>15.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I422" t="inlineStr"/>
       <c r="J422" t="n">
-        <v>15.7</v>
+        <v>15.18</v>
       </c>
       <c r="K422" t="inlineStr">
         <is>
@@ -14444,13 +14708,11 @@
         <v>-6864351.539945108</v>
       </c>
       <c r="H423" t="n">
-        <v>2</v>
-      </c>
-      <c r="I423" t="n">
-        <v>15.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I423" t="inlineStr"/>
       <c r="J423" t="n">
-        <v>15.7</v>
+        <v>15.18</v>
       </c>
       <c r="K423" t="inlineStr">
         <is>
@@ -14485,13 +14747,11 @@
         <v>-6654488.854145108</v>
       </c>
       <c r="H424" t="n">
-        <v>2</v>
-      </c>
-      <c r="I424" t="n">
-        <v>15.72</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I424" t="inlineStr"/>
       <c r="J424" t="n">
-        <v>15.7</v>
+        <v>15.18</v>
       </c>
       <c r="K424" t="inlineStr">
         <is>
@@ -14526,13 +14786,11 @@
         <v>-6743688.788445108</v>
       </c>
       <c r="H425" t="n">
-        <v>2</v>
-      </c>
-      <c r="I425" t="n">
-        <v>15.75</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I425" t="inlineStr"/>
       <c r="J425" t="n">
-        <v>15.7</v>
+        <v>15.18</v>
       </c>
       <c r="K425" t="inlineStr">
         <is>
@@ -14567,13 +14825,11 @@
         <v>-6743688.788445108</v>
       </c>
       <c r="H426" t="n">
-        <v>2</v>
-      </c>
-      <c r="I426" t="n">
-        <v>15.69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I426" t="inlineStr"/>
       <c r="J426" t="n">
-        <v>15.7</v>
+        <v>15.18</v>
       </c>
       <c r="K426" t="inlineStr">
         <is>
@@ -14608,13 +14864,11 @@
         <v>-6834419.800645107</v>
       </c>
       <c r="H427" t="n">
-        <v>2</v>
-      </c>
-      <c r="I427" t="n">
-        <v>15.69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I427" t="inlineStr"/>
       <c r="J427" t="n">
-        <v>15.7</v>
+        <v>15.18</v>
       </c>
       <c r="K427" t="inlineStr">
         <is>
@@ -14649,13 +14903,11 @@
         <v>-6834319.800645107</v>
       </c>
       <c r="H428" t="n">
-        <v>2</v>
-      </c>
-      <c r="I428" t="n">
-        <v>15.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I428" t="inlineStr"/>
       <c r="J428" t="n">
-        <v>15.7</v>
+        <v>15.18</v>
       </c>
       <c r="K428" t="inlineStr">
         <is>
@@ -14690,13 +14942,11 @@
         <v>-6834319.800645107</v>
       </c>
       <c r="H429" t="n">
-        <v>2</v>
-      </c>
-      <c r="I429" t="n">
-        <v>15.73</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I429" t="inlineStr"/>
       <c r="J429" t="n">
-        <v>15.7</v>
+        <v>15.18</v>
       </c>
       <c r="K429" t="inlineStr">
         <is>
@@ -14731,13 +14981,11 @@
         <v>-6834319.800645107</v>
       </c>
       <c r="H430" t="n">
-        <v>2</v>
-      </c>
-      <c r="I430" t="n">
-        <v>15.73</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I430" t="inlineStr"/>
       <c r="J430" t="n">
-        <v>15.7</v>
+        <v>15.18</v>
       </c>
       <c r="K430" t="inlineStr">
         <is>
@@ -14772,13 +15020,11 @@
         <v>-6834319.800645107</v>
       </c>
       <c r="H431" t="n">
-        <v>2</v>
-      </c>
-      <c r="I431" t="n">
-        <v>15.73</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I431" t="inlineStr"/>
       <c r="J431" t="n">
-        <v>15.7</v>
+        <v>15.18</v>
       </c>
       <c r="K431" t="inlineStr">
         <is>
@@ -14813,13 +15059,11 @@
         <v>-6846117.089245107</v>
       </c>
       <c r="H432" t="n">
-        <v>2</v>
-      </c>
-      <c r="I432" t="n">
-        <v>15.73</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I432" t="inlineStr"/>
       <c r="J432" t="n">
-        <v>15.7</v>
+        <v>15.18</v>
       </c>
       <c r="K432" t="inlineStr">
         <is>
@@ -14854,13 +15098,11 @@
         <v>-6773529.743745107</v>
       </c>
       <c r="H433" t="n">
-        <v>2</v>
-      </c>
-      <c r="I433" t="n">
-        <v>15.63</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I433" t="inlineStr"/>
       <c r="J433" t="n">
-        <v>15.7</v>
+        <v>15.18</v>
       </c>
       <c r="K433" t="inlineStr">
         <is>
@@ -14895,13 +15137,11 @@
         <v>-6843433.817745107</v>
       </c>
       <c r="H434" t="n">
-        <v>2</v>
-      </c>
-      <c r="I434" t="n">
-        <v>15.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I434" t="inlineStr"/>
       <c r="J434" t="n">
-        <v>15.7</v>
+        <v>15.18</v>
       </c>
       <c r="K434" t="inlineStr">
         <is>
@@ -14936,13 +15176,11 @@
         <v>-6961561.444045107</v>
       </c>
       <c r="H435" t="n">
-        <v>2</v>
-      </c>
-      <c r="I435" t="n">
-        <v>15.77</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I435" t="inlineStr"/>
       <c r="J435" t="n">
-        <v>15.7</v>
+        <v>15.18</v>
       </c>
       <c r="K435" t="inlineStr">
         <is>
@@ -14977,13 +15215,11 @@
         <v>-6902633.744245107</v>
       </c>
       <c r="H436" t="n">
-        <v>2</v>
-      </c>
-      <c r="I436" t="n">
-        <v>15.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I436" t="inlineStr"/>
       <c r="J436" t="n">
-        <v>15.7</v>
+        <v>15.18</v>
       </c>
       <c r="K436" t="inlineStr">
         <is>
@@ -15018,13 +15254,11 @@
         <v>-6920073.973745108</v>
       </c>
       <c r="H437" t="n">
-        <v>2</v>
-      </c>
-      <c r="I437" t="n">
-        <v>15.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I437" t="inlineStr"/>
       <c r="J437" t="n">
-        <v>15.7</v>
+        <v>15.18</v>
       </c>
       <c r="K437" t="inlineStr">
         <is>
@@ -15059,13 +15293,11 @@
         <v>-6896991.422845108</v>
       </c>
       <c r="H438" t="n">
-        <v>2</v>
-      </c>
-      <c r="I438" t="n">
-        <v>15.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I438" t="inlineStr"/>
       <c r="J438" t="n">
-        <v>15.7</v>
+        <v>15.18</v>
       </c>
       <c r="K438" t="inlineStr">
         <is>
@@ -15100,13 +15332,11 @@
         <v>-6904676.904845107</v>
       </c>
       <c r="H439" t="n">
-        <v>2</v>
-      </c>
-      <c r="I439" t="n">
-        <v>15.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I439" t="inlineStr"/>
       <c r="J439" t="n">
-        <v>15.7</v>
+        <v>15.18</v>
       </c>
       <c r="K439" t="inlineStr">
         <is>
@@ -15141,13 +15371,11 @@
         <v>-6904676.904845107</v>
       </c>
       <c r="H440" t="n">
-        <v>2</v>
-      </c>
-      <c r="I440" t="n">
-        <v>15.65</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I440" t="inlineStr"/>
       <c r="J440" t="n">
-        <v>15.7</v>
+        <v>15.18</v>
       </c>
       <c r="K440" t="inlineStr">
         <is>
@@ -15182,13 +15410,11 @@
         <v>-6863850.273645108</v>
       </c>
       <c r="H441" t="n">
-        <v>2</v>
-      </c>
-      <c r="I441" t="n">
-        <v>15.65</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I441" t="inlineStr"/>
       <c r="J441" t="n">
-        <v>15.7</v>
+        <v>15.18</v>
       </c>
       <c r="K441" t="inlineStr">
         <is>
@@ -15223,13 +15449,11 @@
         <v>-6863850.273645108</v>
       </c>
       <c r="H442" t="n">
-        <v>2</v>
-      </c>
-      <c r="I442" t="n">
-        <v>15.74</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I442" t="inlineStr"/>
       <c r="J442" t="n">
-        <v>15.7</v>
+        <v>15.18</v>
       </c>
       <c r="K442" t="inlineStr">
         <is>
@@ -15264,13 +15488,11 @@
         <v>-6863850.273645108</v>
       </c>
       <c r="H443" t="n">
-        <v>2</v>
-      </c>
-      <c r="I443" t="n">
-        <v>15.74</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I443" t="inlineStr"/>
       <c r="J443" t="n">
-        <v>15.7</v>
+        <v>15.18</v>
       </c>
       <c r="K443" t="inlineStr">
         <is>
@@ -15305,13 +15527,11 @@
         <v>-6879943.213245108</v>
       </c>
       <c r="H444" t="n">
-        <v>2</v>
-      </c>
-      <c r="I444" t="n">
-        <v>15.74</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I444" t="inlineStr"/>
       <c r="J444" t="n">
-        <v>15.7</v>
+        <v>15.18</v>
       </c>
       <c r="K444" t="inlineStr">
         <is>
@@ -15346,13 +15566,11 @@
         <v>-6879943.213245108</v>
       </c>
       <c r="H445" t="n">
-        <v>2</v>
-      </c>
-      <c r="I445" t="n">
-        <v>15.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I445" t="inlineStr"/>
       <c r="J445" t="n">
-        <v>15.7</v>
+        <v>15.18</v>
       </c>
       <c r="K445" t="inlineStr">
         <is>
@@ -15387,13 +15605,11 @@
         <v>-6879943.213245108</v>
       </c>
       <c r="H446" t="n">
-        <v>2</v>
-      </c>
-      <c r="I446" t="n">
-        <v>15.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I446" t="inlineStr"/>
       <c r="J446" t="n">
-        <v>15.7</v>
+        <v>15.18</v>
       </c>
       <c r="K446" t="inlineStr">
         <is>
@@ -15428,13 +15644,11 @@
         <v>-6879943.213245108</v>
       </c>
       <c r="H447" t="n">
-        <v>2</v>
-      </c>
-      <c r="I447" t="n">
-        <v>15.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I447" t="inlineStr"/>
       <c r="J447" t="n">
-        <v>15.7</v>
+        <v>15.18</v>
       </c>
       <c r="K447" t="inlineStr">
         <is>
@@ -15469,13 +15683,11 @@
         <v>-6923865.011245108</v>
       </c>
       <c r="H448" t="n">
-        <v>2</v>
-      </c>
-      <c r="I448" t="n">
-        <v>15.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I448" t="inlineStr"/>
       <c r="J448" t="n">
-        <v>15.7</v>
+        <v>15.18</v>
       </c>
       <c r="K448" t="inlineStr">
         <is>
@@ -15510,13 +15722,11 @@
         <v>-6904690.422145108</v>
       </c>
       <c r="H449" t="n">
-        <v>2</v>
-      </c>
-      <c r="I449" t="n">
-        <v>15.69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I449" t="inlineStr"/>
       <c r="J449" t="n">
-        <v>15.7</v>
+        <v>15.18</v>
       </c>
       <c r="K449" t="inlineStr">
         <is>
@@ -15551,13 +15761,11 @@
         <v>-6938593.812345108</v>
       </c>
       <c r="H450" t="n">
-        <v>2</v>
-      </c>
-      <c r="I450" t="n">
-        <v>15.73</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I450" t="inlineStr"/>
       <c r="J450" t="n">
-        <v>15.7</v>
+        <v>15.18</v>
       </c>
       <c r="K450" t="inlineStr">
         <is>
@@ -15592,13 +15800,11 @@
         <v>-6940665.631545108</v>
       </c>
       <c r="H451" t="n">
-        <v>2</v>
-      </c>
-      <c r="I451" t="n">
-        <v>15.72</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I451" t="inlineStr"/>
       <c r="J451" t="n">
-        <v>15.7</v>
+        <v>15.18</v>
       </c>
       <c r="K451" t="inlineStr">
         <is>
@@ -15633,13 +15839,11 @@
         <v>-6940625.631545108</v>
       </c>
       <c r="H452" t="n">
-        <v>2</v>
-      </c>
-      <c r="I452" t="n">
-        <v>15.69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I452" t="inlineStr"/>
       <c r="J452" t="n">
-        <v>15.7</v>
+        <v>15.18</v>
       </c>
       <c r="K452" t="inlineStr">
         <is>
@@ -15674,13 +15878,11 @@
         <v>-6970726.820745108</v>
       </c>
       <c r="H453" t="n">
-        <v>2</v>
-      </c>
-      <c r="I453" t="n">
-        <v>15.72</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I453" t="inlineStr"/>
       <c r="J453" t="n">
-        <v>15.7</v>
+        <v>15.18</v>
       </c>
       <c r="K453" t="inlineStr">
         <is>
@@ -15715,13 +15917,11 @@
         <v>-6992378.862745108</v>
       </c>
       <c r="H454" t="n">
-        <v>2</v>
-      </c>
-      <c r="I454" t="n">
-        <v>15.69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I454" t="inlineStr"/>
       <c r="J454" t="n">
-        <v>15.7</v>
+        <v>15.18</v>
       </c>
       <c r="K454" t="inlineStr">
         <is>
@@ -15756,13 +15956,11 @@
         <v>-6992378.862745108</v>
       </c>
       <c r="H455" t="n">
-        <v>2</v>
-      </c>
-      <c r="I455" t="n">
-        <v>15.67</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I455" t="inlineStr"/>
       <c r="J455" t="n">
-        <v>15.7</v>
+        <v>15.18</v>
       </c>
       <c r="K455" t="inlineStr">
         <is>
@@ -15797,13 +15995,11 @@
         <v>-7012346.847345108</v>
       </c>
       <c r="H456" t="n">
-        <v>2</v>
-      </c>
-      <c r="I456" t="n">
-        <v>15.67</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I456" t="inlineStr"/>
       <c r="J456" t="n">
-        <v>15.7</v>
+        <v>15.18</v>
       </c>
       <c r="K456" t="inlineStr">
         <is>
@@ -15838,13 +16034,11 @@
         <v>-6998902.071845108</v>
       </c>
       <c r="H457" t="n">
-        <v>2</v>
-      </c>
-      <c r="I457" t="n">
-        <v>15.66</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I457" t="inlineStr"/>
       <c r="J457" t="n">
-        <v>15.7</v>
+        <v>15.18</v>
       </c>
       <c r="K457" t="inlineStr">
         <is>
@@ -15879,13 +16073,11 @@
         <v>-7127420.409545108</v>
       </c>
       <c r="H458" t="n">
-        <v>2</v>
-      </c>
-      <c r="I458" t="n">
-        <v>15.69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I458" t="inlineStr"/>
       <c r="J458" t="n">
-        <v>15.7</v>
+        <v>15.18</v>
       </c>
       <c r="K458" t="inlineStr">
         <is>
@@ -15920,13 +16112,11 @@
         <v>-6932846.418945108</v>
       </c>
       <c r="H459" t="n">
-        <v>2</v>
-      </c>
-      <c r="I459" t="n">
-        <v>15.67</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I459" t="inlineStr"/>
       <c r="J459" t="n">
-        <v>15.7</v>
+        <v>15.18</v>
       </c>
       <c r="K459" t="inlineStr">
         <is>
@@ -15961,13 +16151,11 @@
         <v>-6932846.418945108</v>
       </c>
       <c r="H460" t="n">
-        <v>2</v>
-      </c>
-      <c r="I460" t="n">
-        <v>15.72</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I460" t="inlineStr"/>
       <c r="J460" t="n">
-        <v>15.7</v>
+        <v>15.18</v>
       </c>
       <c r="K460" t="inlineStr">
         <is>
@@ -16002,13 +16190,11 @@
         <v>-6892784.156745108</v>
       </c>
       <c r="H461" t="n">
-        <v>2</v>
-      </c>
-      <c r="I461" t="n">
-        <v>15.72</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I461" t="inlineStr"/>
       <c r="J461" t="n">
-        <v>15.7</v>
+        <v>15.18</v>
       </c>
       <c r="K461" t="inlineStr">
         <is>
@@ -16043,13 +16229,11 @@
         <v>-6857524.731345108</v>
       </c>
       <c r="H462" t="n">
-        <v>2</v>
-      </c>
-      <c r="I462" t="n">
-        <v>15.73</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I462" t="inlineStr"/>
       <c r="J462" t="n">
-        <v>15.7</v>
+        <v>15.18</v>
       </c>
       <c r="K462" t="inlineStr">
         <is>
@@ -16084,13 +16268,11 @@
         <v>-6857524.731345108</v>
       </c>
       <c r="H463" t="n">
-        <v>2</v>
-      </c>
-      <c r="I463" t="n">
-        <v>15.76</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I463" t="inlineStr"/>
       <c r="J463" t="n">
-        <v>15.7</v>
+        <v>15.18</v>
       </c>
       <c r="K463" t="inlineStr">
         <is>
@@ -16125,13 +16307,11 @@
         <v>-6836991.165745107</v>
       </c>
       <c r="H464" t="n">
-        <v>2</v>
-      </c>
-      <c r="I464" t="n">
-        <v>15.76</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I464" t="inlineStr"/>
       <c r="J464" t="n">
-        <v>15.7</v>
+        <v>15.18</v>
       </c>
       <c r="K464" t="inlineStr">
         <is>
@@ -16166,13 +16346,11 @@
         <v>-6799110.258245108</v>
       </c>
       <c r="H465" t="n">
-        <v>2</v>
-      </c>
-      <c r="I465" t="n">
-        <v>15.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I465" t="inlineStr"/>
       <c r="J465" t="n">
-        <v>15.7</v>
+        <v>15.18</v>
       </c>
       <c r="K465" t="inlineStr">
         <is>
@@ -16207,13 +16385,11 @@
         <v>-6739323.995545108</v>
       </c>
       <c r="H466" t="n">
-        <v>2</v>
-      </c>
-      <c r="I466" t="n">
-        <v>15.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I466" t="inlineStr"/>
       <c r="J466" t="n">
-        <v>15.7</v>
+        <v>15.18</v>
       </c>
       <c r="K466" t="inlineStr">
         <is>
@@ -16248,13 +16424,11 @@
         <v>-6747172.224445108</v>
       </c>
       <c r="H467" t="n">
-        <v>2</v>
-      </c>
-      <c r="I467" t="n">
-        <v>15.91</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I467" t="inlineStr"/>
       <c r="J467" t="n">
-        <v>15.7</v>
+        <v>15.18</v>
       </c>
       <c r="K467" t="inlineStr">
         <is>
@@ -16289,13 +16463,11 @@
         <v>-6742874.430245108</v>
       </c>
       <c r="H468" t="n">
-        <v>2</v>
-      </c>
-      <c r="I468" t="n">
-        <v>15.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I468" t="inlineStr"/>
       <c r="J468" t="n">
-        <v>15.7</v>
+        <v>15.18</v>
       </c>
       <c r="K468" t="inlineStr">
         <is>
@@ -16330,13 +16502,11 @@
         <v>-6785415.216845108</v>
       </c>
       <c r="H469" t="n">
-        <v>2</v>
-      </c>
-      <c r="I469" t="n">
-        <v>15.91</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I469" t="inlineStr"/>
       <c r="J469" t="n">
-        <v>15.7</v>
+        <v>15.18</v>
       </c>
       <c r="K469" t="inlineStr">
         <is>
@@ -16371,13 +16541,11 @@
         <v>-6780290.838845109</v>
       </c>
       <c r="H470" t="n">
-        <v>2</v>
-      </c>
-      <c r="I470" t="n">
-        <v>15.86</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I470" t="inlineStr"/>
       <c r="J470" t="n">
-        <v>15.7</v>
+        <v>15.18</v>
       </c>
       <c r="K470" t="inlineStr">
         <is>
@@ -16412,13 +16580,11 @@
         <v>-6680528.702145109</v>
       </c>
       <c r="H471" t="n">
-        <v>2</v>
-      </c>
-      <c r="I471" t="n">
-        <v>15.87</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I471" t="inlineStr"/>
       <c r="J471" t="n">
-        <v>15.7</v>
+        <v>15.18</v>
       </c>
       <c r="K471" t="inlineStr">
         <is>
@@ -16453,13 +16619,11 @@
         <v>-6680528.702145109</v>
       </c>
       <c r="H472" t="n">
-        <v>2</v>
-      </c>
-      <c r="I472" t="n">
-        <v>15.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I472" t="inlineStr"/>
       <c r="J472" t="n">
-        <v>15.7</v>
+        <v>15.18</v>
       </c>
       <c r="K472" t="inlineStr">
         <is>
@@ -16494,13 +16658,11 @@
         <v>-6666271.999245109</v>
       </c>
       <c r="H473" t="n">
-        <v>2</v>
-      </c>
-      <c r="I473" t="n">
-        <v>15.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I473" t="inlineStr"/>
       <c r="J473" t="n">
-        <v>15.7</v>
+        <v>15.18</v>
       </c>
       <c r="K473" t="inlineStr">
         <is>
@@ -16535,13 +16697,11 @@
         <v>-6666271.999245109</v>
       </c>
       <c r="H474" t="n">
-        <v>2</v>
-      </c>
-      <c r="I474" t="n">
-        <v>15.91</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I474" t="inlineStr"/>
       <c r="J474" t="n">
-        <v>15.7</v>
+        <v>15.18</v>
       </c>
       <c r="K474" t="inlineStr">
         <is>
@@ -16576,13 +16736,11 @@
         <v>-6666271.999245109</v>
       </c>
       <c r="H475" t="n">
-        <v>2</v>
-      </c>
-      <c r="I475" t="n">
-        <v>15.91</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I475" t="inlineStr"/>
       <c r="J475" t="n">
-        <v>15.7</v>
+        <v>15.18</v>
       </c>
       <c r="K475" t="inlineStr">
         <is>
@@ -16617,13 +16775,11 @@
         <v>-6666271.999245109</v>
       </c>
       <c r="H476" t="n">
-        <v>2</v>
-      </c>
-      <c r="I476" t="n">
-        <v>15.91</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I476" t="inlineStr"/>
       <c r="J476" t="n">
-        <v>15.7</v>
+        <v>15.18</v>
       </c>
       <c r="K476" t="inlineStr">
         <is>
@@ -16658,13 +16814,11 @@
         <v>-6674056.250045109</v>
       </c>
       <c r="H477" t="n">
-        <v>2</v>
-      </c>
-      <c r="I477" t="n">
-        <v>15.91</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I477" t="inlineStr"/>
       <c r="J477" t="n">
-        <v>15.7</v>
+        <v>15.18</v>
       </c>
       <c r="K477" t="inlineStr">
         <is>
@@ -16699,13 +16853,11 @@
         <v>-6674056.250045109</v>
       </c>
       <c r="H478" t="n">
-        <v>2</v>
-      </c>
-      <c r="I478" t="n">
-        <v>15.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I478" t="inlineStr"/>
       <c r="J478" t="n">
-        <v>15.7</v>
+        <v>15.18</v>
       </c>
       <c r="K478" t="inlineStr">
         <is>
@@ -16740,13 +16892,11 @@
         <v>-6674056.250045109</v>
       </c>
       <c r="H479" t="n">
-        <v>2</v>
-      </c>
-      <c r="I479" t="n">
-        <v>15.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I479" t="inlineStr"/>
       <c r="J479" t="n">
-        <v>15.7</v>
+        <v>15.18</v>
       </c>
       <c r="K479" t="inlineStr">
         <is>
@@ -16781,13 +16931,11 @@
         <v>-6673679.797145109</v>
       </c>
       <c r="H480" t="n">
-        <v>2</v>
-      </c>
-      <c r="I480" t="n">
-        <v>15.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I480" t="inlineStr"/>
       <c r="J480" t="n">
-        <v>15.7</v>
+        <v>15.18</v>
       </c>
       <c r="K480" t="inlineStr">
         <is>
@@ -16822,13 +16970,11 @@
         <v>-6673679.797145109</v>
       </c>
       <c r="H481" t="n">
-        <v>2</v>
-      </c>
-      <c r="I481" t="n">
-        <v>15.91</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I481" t="inlineStr"/>
       <c r="J481" t="n">
-        <v>15.7</v>
+        <v>15.18</v>
       </c>
       <c r="K481" t="inlineStr">
         <is>
@@ -16863,13 +17009,11 @@
         <v>-6653104.039645108</v>
       </c>
       <c r="H482" t="n">
-        <v>2</v>
-      </c>
-      <c r="I482" t="n">
-        <v>15.91</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I482" t="inlineStr"/>
       <c r="J482" t="n">
-        <v>15.7</v>
+        <v>15.18</v>
       </c>
       <c r="K482" t="inlineStr">
         <is>
@@ -16904,13 +17048,11 @@
         <v>-6651257.700045109</v>
       </c>
       <c r="H483" t="n">
-        <v>2</v>
-      </c>
-      <c r="I483" t="n">
-        <v>15.95</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I483" t="inlineStr"/>
       <c r="J483" t="n">
-        <v>15.7</v>
+        <v>15.18</v>
       </c>
       <c r="K483" t="inlineStr">
         <is>
@@ -16945,13 +17087,11 @@
         <v>-6651257.700045109</v>
       </c>
       <c r="H484" t="n">
-        <v>2</v>
-      </c>
-      <c r="I484" t="n">
-        <v>15.98</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I484" t="inlineStr"/>
       <c r="J484" t="n">
-        <v>15.7</v>
+        <v>15.18</v>
       </c>
       <c r="K484" t="inlineStr">
         <is>
@@ -16986,13 +17126,11 @@
         <v>-6651257.700045109</v>
       </c>
       <c r="H485" t="n">
-        <v>2</v>
-      </c>
-      <c r="I485" t="n">
-        <v>15.98</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I485" t="inlineStr"/>
       <c r="J485" t="n">
-        <v>15.7</v>
+        <v>15.18</v>
       </c>
       <c r="K485" t="inlineStr">
         <is>
@@ -17027,13 +17165,11 @@
         <v>-6651186.761845109</v>
       </c>
       <c r="H486" t="n">
-        <v>2</v>
-      </c>
-      <c r="I486" t="n">
-        <v>15.98</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I486" t="inlineStr"/>
       <c r="J486" t="n">
-        <v>15.7</v>
+        <v>15.18</v>
       </c>
       <c r="K486" t="inlineStr">
         <is>
@@ -17068,13 +17204,11 @@
         <v>-6651186.761845109</v>
       </c>
       <c r="H487" t="n">
-        <v>2</v>
-      </c>
-      <c r="I487" t="n">
-        <v>16</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I487" t="inlineStr"/>
       <c r="J487" t="n">
-        <v>15.7</v>
+        <v>15.18</v>
       </c>
       <c r="K487" t="inlineStr">
         <is>
@@ -17109,13 +17243,11 @@
         <v>-6651186.761845109</v>
       </c>
       <c r="H488" t="n">
-        <v>2</v>
-      </c>
-      <c r="I488" t="n">
-        <v>16</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I488" t="inlineStr"/>
       <c r="J488" t="n">
-        <v>15.7</v>
+        <v>15.18</v>
       </c>
       <c r="K488" t="inlineStr">
         <is>
@@ -17150,13 +17282,11 @@
         <v>-6979426.255745109</v>
       </c>
       <c r="H489" t="n">
-        <v>2</v>
-      </c>
-      <c r="I489" t="n">
-        <v>16</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I489" t="inlineStr"/>
       <c r="J489" t="n">
-        <v>15.7</v>
+        <v>15.18</v>
       </c>
       <c r="K489" t="inlineStr">
         <is>
@@ -17191,13 +17321,11 @@
         <v>-6979426.255745109</v>
       </c>
       <c r="H490" t="n">
-        <v>2</v>
-      </c>
-      <c r="I490" t="n">
-        <v>15.98</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I490" t="inlineStr"/>
       <c r="J490" t="n">
-        <v>15.7</v>
+        <v>15.18</v>
       </c>
       <c r="K490" t="inlineStr">
         <is>
@@ -17232,13 +17360,11 @@
         <v>-6975942.007745109</v>
       </c>
       <c r="H491" t="n">
-        <v>2</v>
-      </c>
-      <c r="I491" t="n">
-        <v>15.98</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I491" t="inlineStr"/>
       <c r="J491" t="n">
-        <v>15.7</v>
+        <v>15.18</v>
       </c>
       <c r="K491" t="inlineStr">
         <is>
@@ -17273,13 +17399,11 @@
         <v>-7009546.35804511</v>
       </c>
       <c r="H492" t="n">
-        <v>2</v>
-      </c>
-      <c r="I492" t="n">
-        <v>16</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I492" t="inlineStr"/>
       <c r="J492" t="n">
-        <v>15.7</v>
+        <v>15.18</v>
       </c>
       <c r="K492" t="inlineStr">
         <is>
@@ -17314,13 +17438,11 @@
         <v>-6853796.084045109</v>
       </c>
       <c r="H493" t="n">
-        <v>2</v>
-      </c>
-      <c r="I493" t="n">
-        <v>15.97</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I493" t="inlineStr"/>
       <c r="J493" t="n">
-        <v>15.7</v>
+        <v>15.18</v>
       </c>
       <c r="K493" t="inlineStr">
         <is>
@@ -17355,13 +17477,11 @@
         <v>-6819793.220745109</v>
       </c>
       <c r="H494" t="n">
-        <v>2</v>
-      </c>
-      <c r="I494" t="n">
-        <v>15.98</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I494" t="inlineStr"/>
       <c r="J494" t="n">
-        <v>15.7</v>
+        <v>15.18</v>
       </c>
       <c r="K494" t="inlineStr">
         <is>
@@ -17396,13 +17516,11 @@
         <v>-6353715.144945109</v>
       </c>
       <c r="H495" t="n">
-        <v>2</v>
-      </c>
-      <c r="I495" t="n">
-        <v>15.99</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I495" t="inlineStr"/>
       <c r="J495" t="n">
-        <v>15.7</v>
+        <v>15.18</v>
       </c>
       <c r="K495" t="inlineStr">
         <is>
@@ -17437,13 +17555,11 @@
         <v>-6353715.144945109</v>
       </c>
       <c r="H496" t="n">
-        <v>2</v>
-      </c>
-      <c r="I496" t="n">
-        <v>16.05</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I496" t="inlineStr"/>
       <c r="J496" t="n">
-        <v>15.7</v>
+        <v>15.18</v>
       </c>
       <c r="K496" t="inlineStr">
         <is>
@@ -17482,7 +17598,7 @@
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="n">
-        <v>15.7</v>
+        <v>15.18</v>
       </c>
       <c r="K497" t="inlineStr">
         <is>
@@ -17517,13 +17633,11 @@
         <v>-6836878.154945109</v>
       </c>
       <c r="H498" t="n">
-        <v>2</v>
-      </c>
-      <c r="I498" t="n">
-        <v>15.95</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I498" t="inlineStr"/>
       <c r="J498" t="n">
-        <v>15.7</v>
+        <v>15.18</v>
       </c>
       <c r="K498" t="inlineStr">
         <is>
@@ -17562,7 +17676,7 @@
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="n">
-        <v>15.7</v>
+        <v>15.18</v>
       </c>
       <c r="K499" t="inlineStr">
         <is>
@@ -17575,6 +17689,6 @@
       <c r="M499" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-13 BackTest SOC.xlsx
+++ b/BackTest/2020-01-13 BackTest SOC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-650834.9481114037</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-650834.9481114037</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-646648.2326114037</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-646648.2326114037</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-641648.2326114037</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-665951.1508114036</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-665951.1508114036</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-1097787.752635399</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-1091875.343876275</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-1094047.771876275</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-1094047.771876275</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-1097130.696476275</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-1097130.696476275</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-1095719.538076275</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-1095489.940876275</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-1152011.543376275</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-1146011.543376275</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-1146010.543376275</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-1146010.543376275</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-1144725.967704829</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-1142291.934904829</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-1283040.429904829</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-1276974.623804829</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-1277019.623804829</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-1276839.623804829</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-1277082.195032483</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-1277051.195032483</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-1277051.195032483</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-1364578.594632482</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-1364578.594632482</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-1298374.905132482</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-1298374.905132482</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-1585832.835232482</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-1585832.835232482</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-1585832.835232482</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-1585832.835232482</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-1609970.368932482</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-1784240.912132482</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-1784240.912132482</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-1782404.926820365</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-1786431.081820365</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-1782451.846220365</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-1778583.579220365</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-1774557.424220365</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-1774457.424220365</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-1831827.377120365</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-1761001.264120365</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-1761001.264120365</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-1834983.596505686</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-1910133.627086726</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-1892829.936186726</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-1892829.936186726</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-1888727.510086726</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-1892006.671886726</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-1892006.671886726</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-1892006.671886726</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-1892006.671886726</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-1917130.327386726</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-1917077.427386726</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-1927336.189186726</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-1927336.189186726</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-1928833.015486726</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-1928756.649286726</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-1944282.329886726</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-1952971.399186726</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-1952971.399186726</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-1946833.046390168</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-1946885.974290168</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-1951271.917790168</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-2137547.866090168</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-2492086.821190168</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-2518700.138790168</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-2518700.138790168</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-2495481.019290168</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-2495481.019290168</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-2510773.887390168</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-2636180.328790168</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-2763440.118090168</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-2763739.427290168</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-2748188.181390168</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-2748188.181390168</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-2747415.799790168</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-2747415.799790168</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-2587868.262090168</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-2689259.423590168</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-2686808.548390168</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-3035221.078090168</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-3034396.078090168</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-3041129.100290168</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-3043182.061090168</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-3011408.819590168</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-3059104.943590167</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-3059104.943590167</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-3304548.120590168</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-3352255.977490168</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-4248764.311490168</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-4597991.356763884</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-4486075.649715322</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-4560248.727115322</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-4560248.727115322</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-4560248.727115322</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>-4305106.165038625</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>-4305106.165038625</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>-4304903.305938625</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>-4304574.599138625</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>-4304426.113638625</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>-4317820.609771379</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -10582,7 +10582,7 @@
         <v>-5762876.208786285</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10615,7 +10615,7 @@
         <v>-5786869.611586285</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10648,7 +10648,7 @@
         <v>-5775869.611586285</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10780,7 +10780,7 @@
         <v>-5804424.814386285</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -10846,7 +10846,7 @@
         <v>-5804625.665086285</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -10912,7 +10912,7 @@
         <v>-5875782.820786285</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -10945,7 +10945,7 @@
         <v>-5899389.098786285</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -10978,7 +10978,7 @@
         <v>-6042470.508786285</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11011,7 +11011,7 @@
         <v>-6042387.356786286</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11044,7 +11044,7 @@
         <v>-6042387.356786286</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11077,7 +11077,7 @@
         <v>-6051305.731686286</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11110,7 +11110,7 @@
         <v>-6067387.356786286</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11143,7 +11143,7 @@
         <v>-6067387.356786286</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11176,7 +11176,7 @@
         <v>-6067356.216786286</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11209,7 +11209,7 @@
         <v>-6067356.216786286</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11242,7 +11242,7 @@
         <v>-6068633.551586286</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11275,7 +11275,7 @@
         <v>-6068633.551586286</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11440,7 +11440,7 @@
         <v>-6083447.951886287</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
         <v>-6083447.951886287</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11506,7 +11506,7 @@
         <v>-5842858.560086287</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11539,7 +11539,7 @@
         <v>-5911394.976386286</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11572,7 +11572,7 @@
         <v>-5911394.976386286</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11605,7 +11605,7 @@
         <v>-5936678.457586287</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11638,7 +11638,7 @@
         <v>-5936678.457586287</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -11671,7 +11671,7 @@
         <v>-6141425.723086286</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -11704,7 +11704,7 @@
         <v>-6146892.907086287</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -11737,7 +11737,7 @@
         <v>-6004827.992786286</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -11935,7 +11935,7 @@
         <v>-6190906.553050236</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -11968,7 +11968,7 @@
         <v>-6357296.964950236</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12001,7 +12001,7 @@
         <v>-6407296.964950236</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12034,7 +12034,7 @@
         <v>-6509907.435450235</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12067,7 +12067,7 @@
         <v>-6571808.711950235</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12100,7 +12100,7 @@
         <v>-6554244.973150235</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12133,7 +12133,7 @@
         <v>-6720369.353450235</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12166,7 +12166,7 @@
         <v>-7421802.629450235</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12199,7 +12199,7 @@
         <v>-7675027.156850235</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12232,7 +12232,7 @@
         <v>-7324044.462450234</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12397,14 +12397,10 @@
         <v>-7783100.657550234</v>
       </c>
       <c r="H364" t="n">
-        <v>1</v>
-      </c>
-      <c r="I364" t="n">
-        <v>15.18</v>
-      </c>
-      <c r="J364" t="n">
-        <v>15.18</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I364" t="inlineStr"/>
+      <c r="J364" t="inlineStr"/>
       <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
@@ -12434,19 +12430,11 @@
         <v>-7795992.967650235</v>
       </c>
       <c r="H365" t="n">
-        <v>1</v>
-      </c>
-      <c r="I365" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="J365" t="n">
-        <v>15.18</v>
-      </c>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I365" t="inlineStr"/>
+      <c r="J365" t="inlineStr"/>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12475,19 +12463,11 @@
         <v>-7795895.826649585</v>
       </c>
       <c r="H366" t="n">
-        <v>1</v>
-      </c>
-      <c r="I366" t="n">
-        <v>15.27</v>
-      </c>
-      <c r="J366" t="n">
-        <v>15.18</v>
-      </c>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I366" t="inlineStr"/>
+      <c r="J366" t="inlineStr"/>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -12521,9 +12501,7 @@
       <c r="I367" t="n">
         <v>15.39</v>
       </c>
-      <c r="J367" t="n">
-        <v>15.18</v>
-      </c>
+      <c r="J367" t="inlineStr"/>
       <c r="K367" t="inlineStr">
         <is>
           <t>매수 체결</t>
@@ -12562,9 +12540,7 @@
       <c r="I368" t="n">
         <v>15.4</v>
       </c>
-      <c r="J368" t="n">
-        <v>15.18</v>
-      </c>
+      <c r="J368" t="inlineStr"/>
       <c r="K368" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12598,14 +12574,10 @@
         <v>-7602744.952849586</v>
       </c>
       <c r="H369" t="n">
-        <v>1</v>
-      </c>
-      <c r="I369" t="n">
-        <v>15.55</v>
-      </c>
-      <c r="J369" t="n">
-        <v>15.18</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I369" t="inlineStr"/>
+      <c r="J369" t="inlineStr"/>
       <c r="K369" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12639,14 +12611,10 @@
         <v>-7577175.408845127</v>
       </c>
       <c r="H370" t="n">
-        <v>1</v>
-      </c>
-      <c r="I370" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="J370" t="n">
-        <v>15.18</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I370" t="inlineStr"/>
+      <c r="J370" t="inlineStr"/>
       <c r="K370" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12683,9 +12651,7 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="n">
-        <v>15.18</v>
-      </c>
+      <c r="J371" t="inlineStr"/>
       <c r="K371" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12722,9 +12688,7 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="n">
-        <v>15.18</v>
-      </c>
+      <c r="J372" t="inlineStr"/>
       <c r="K372" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12761,9 +12725,7 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="n">
-        <v>15.18</v>
-      </c>
+      <c r="J373" t="inlineStr"/>
       <c r="K373" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12800,9 +12762,7 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="n">
-        <v>15.18</v>
-      </c>
+      <c r="J374" t="inlineStr"/>
       <c r="K374" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12839,9 +12799,7 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="n">
-        <v>15.18</v>
-      </c>
+      <c r="J375" t="inlineStr"/>
       <c r="K375" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12878,9 +12836,7 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="n">
-        <v>15.18</v>
-      </c>
+      <c r="J376" t="inlineStr"/>
       <c r="K376" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12917,9 +12873,7 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="n">
-        <v>15.18</v>
-      </c>
+      <c r="J377" t="inlineStr"/>
       <c r="K377" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12956,9 +12910,7 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="n">
-        <v>15.18</v>
-      </c>
+      <c r="J378" t="inlineStr"/>
       <c r="K378" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12995,9 +12947,7 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="n">
-        <v>15.18</v>
-      </c>
+      <c r="J379" t="inlineStr"/>
       <c r="K379" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13034,9 +12984,7 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="n">
-        <v>15.18</v>
-      </c>
+      <c r="J380" t="inlineStr"/>
       <c r="K380" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13073,9 +13021,7 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="n">
-        <v>15.18</v>
-      </c>
+      <c r="J381" t="inlineStr"/>
       <c r="K381" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13112,9 +13058,7 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="n">
-        <v>15.18</v>
-      </c>
+      <c r="J382" t="inlineStr"/>
       <c r="K382" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13151,9 +13095,7 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="n">
-        <v>15.18</v>
-      </c>
+      <c r="J383" t="inlineStr"/>
       <c r="K383" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13190,9 +13132,7 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="n">
-        <v>15.18</v>
-      </c>
+      <c r="J384" t="inlineStr"/>
       <c r="K384" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13229,9 +13169,7 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="n">
-        <v>15.18</v>
-      </c>
+      <c r="J385" t="inlineStr"/>
       <c r="K385" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13268,9 +13206,7 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="n">
-        <v>15.18</v>
-      </c>
+      <c r="J386" t="inlineStr"/>
       <c r="K386" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13307,9 +13243,7 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="n">
-        <v>15.18</v>
-      </c>
+      <c r="J387" t="inlineStr"/>
       <c r="K387" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13346,9 +13280,7 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="n">
-        <v>15.18</v>
-      </c>
+      <c r="J388" t="inlineStr"/>
       <c r="K388" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13385,9 +13317,7 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="n">
-        <v>15.18</v>
-      </c>
+      <c r="J389" t="inlineStr"/>
       <c r="K389" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13424,9 +13354,7 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="n">
-        <v>15.18</v>
-      </c>
+      <c r="J390" t="inlineStr"/>
       <c r="K390" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13463,9 +13391,7 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="n">
-        <v>15.18</v>
-      </c>
+      <c r="J391" t="inlineStr"/>
       <c r="K391" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13502,9 +13428,7 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="n">
-        <v>15.18</v>
-      </c>
+      <c r="J392" t="inlineStr"/>
       <c r="K392" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13541,9 +13465,7 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="n">
-        <v>15.18</v>
-      </c>
+      <c r="J393" t="inlineStr"/>
       <c r="K393" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13580,9 +13502,7 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="n">
-        <v>15.18</v>
-      </c>
+      <c r="J394" t="inlineStr"/>
       <c r="K394" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13619,9 +13539,7 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="n">
-        <v>15.18</v>
-      </c>
+      <c r="J395" t="inlineStr"/>
       <c r="K395" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13658,9 +13576,7 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="n">
-        <v>15.18</v>
-      </c>
+      <c r="J396" t="inlineStr"/>
       <c r="K396" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13697,9 +13613,7 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="n">
-        <v>15.18</v>
-      </c>
+      <c r="J397" t="inlineStr"/>
       <c r="K397" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13736,9 +13650,7 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="n">
-        <v>15.18</v>
-      </c>
+      <c r="J398" t="inlineStr"/>
       <c r="K398" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13775,9 +13687,7 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="n">
-        <v>15.18</v>
-      </c>
+      <c r="J399" t="inlineStr"/>
       <c r="K399" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13814,9 +13724,7 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="n">
-        <v>15.18</v>
-      </c>
+      <c r="J400" t="inlineStr"/>
       <c r="K400" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13853,9 +13761,7 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="n">
-        <v>15.18</v>
-      </c>
+      <c r="J401" t="inlineStr"/>
       <c r="K401" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13892,9 +13798,7 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="n">
-        <v>15.18</v>
-      </c>
+      <c r="J402" t="inlineStr"/>
       <c r="K402" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13931,9 +13835,7 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="n">
-        <v>15.18</v>
-      </c>
+      <c r="J403" t="inlineStr"/>
       <c r="K403" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13970,9 +13872,7 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="n">
-        <v>15.18</v>
-      </c>
+      <c r="J404" t="inlineStr"/>
       <c r="K404" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14009,9 +13909,7 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="n">
-        <v>15.18</v>
-      </c>
+      <c r="J405" t="inlineStr"/>
       <c r="K405" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14048,9 +13946,7 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="n">
-        <v>15.18</v>
-      </c>
+      <c r="J406" t="inlineStr"/>
       <c r="K406" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14087,9 +13983,7 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="n">
-        <v>15.18</v>
-      </c>
+      <c r="J407" t="inlineStr"/>
       <c r="K407" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14126,9 +14020,7 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="n">
-        <v>15.18</v>
-      </c>
+      <c r="J408" t="inlineStr"/>
       <c r="K408" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14162,20 +14054,16 @@
         <v>-6911692.504545107</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="n">
-        <v>15.18</v>
-      </c>
+      <c r="J409" t="inlineStr"/>
       <c r="K409" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L409" t="n">
-        <v>1</v>
-      </c>
+      <c r="L409" t="inlineStr"/>
       <c r="M409" t="inlineStr"/>
     </row>
     <row r="410">
@@ -14204,14 +14092,8 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="n">
-        <v>15.18</v>
-      </c>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J410" t="inlineStr"/>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14240,17 +14122,11 @@
         <v>-6983222.788845108</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="n">
-        <v>15.18</v>
-      </c>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J411" t="inlineStr"/>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14279,17 +14155,11 @@
         <v>-6983322.788845108</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="n">
-        <v>15.18</v>
-      </c>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J412" t="inlineStr"/>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14318,17 +14188,11 @@
         <v>-6983322.788845108</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="n">
-        <v>15.18</v>
-      </c>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J413" t="inlineStr"/>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14357,17 +14221,11 @@
         <v>-6983222.788845108</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="n">
-        <v>15.18</v>
-      </c>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J414" t="inlineStr"/>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14399,14 +14257,8 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="n">
-        <v>15.18</v>
-      </c>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J415" t="inlineStr"/>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14438,14 +14290,8 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="n">
-        <v>15.18</v>
-      </c>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J416" t="inlineStr"/>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14477,14 +14323,8 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="n">
-        <v>15.18</v>
-      </c>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J417" t="inlineStr"/>
+      <c r="K417" t="inlineStr"/>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14516,14 +14356,8 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="n">
-        <v>15.18</v>
-      </c>
-      <c r="K418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J418" t="inlineStr"/>
+      <c r="K418" t="inlineStr"/>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14555,14 +14389,8 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="n">
-        <v>15.18</v>
-      </c>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J419" t="inlineStr"/>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14594,14 +14422,8 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="n">
-        <v>15.18</v>
-      </c>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J420" t="inlineStr"/>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14633,14 +14455,8 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="n">
-        <v>15.18</v>
-      </c>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J421" t="inlineStr"/>
+      <c r="K421" t="inlineStr"/>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14672,14 +14488,8 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="n">
-        <v>15.18</v>
-      </c>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J422" t="inlineStr"/>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14711,14 +14521,8 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="n">
-        <v>15.18</v>
-      </c>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J423" t="inlineStr"/>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14750,14 +14554,8 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="n">
-        <v>15.18</v>
-      </c>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J424" t="inlineStr"/>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -14789,14 +14587,8 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="n">
-        <v>15.18</v>
-      </c>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J425" t="inlineStr"/>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -14828,14 +14620,8 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="n">
-        <v>15.18</v>
-      </c>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J426" t="inlineStr"/>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -14867,14 +14653,8 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="n">
-        <v>15.18</v>
-      </c>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J427" t="inlineStr"/>
+      <c r="K427" t="inlineStr"/>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -14906,14 +14686,8 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="n">
-        <v>15.18</v>
-      </c>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J428" t="inlineStr"/>
+      <c r="K428" t="inlineStr"/>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -14945,14 +14719,8 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="n">
-        <v>15.18</v>
-      </c>
-      <c r="K429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J429" t="inlineStr"/>
+      <c r="K429" t="inlineStr"/>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -14984,14 +14752,8 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="n">
-        <v>15.18</v>
-      </c>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J430" t="inlineStr"/>
+      <c r="K430" t="inlineStr"/>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -15023,14 +14785,8 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="n">
-        <v>15.18</v>
-      </c>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J431" t="inlineStr"/>
+      <c r="K431" t="inlineStr"/>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -15062,14 +14818,8 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="n">
-        <v>15.18</v>
-      </c>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J432" t="inlineStr"/>
+      <c r="K432" t="inlineStr"/>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -15101,14 +14851,8 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="n">
-        <v>15.18</v>
-      </c>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J433" t="inlineStr"/>
+      <c r="K433" t="inlineStr"/>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -15140,14 +14884,8 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="n">
-        <v>15.18</v>
-      </c>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J434" t="inlineStr"/>
+      <c r="K434" t="inlineStr"/>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -15176,17 +14914,11 @@
         <v>-6961561.444045107</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="n">
-        <v>15.18</v>
-      </c>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J435" t="inlineStr"/>
+      <c r="K435" t="inlineStr"/>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -15218,14 +14950,8 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="n">
-        <v>15.18</v>
-      </c>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J436" t="inlineStr"/>
+      <c r="K436" t="inlineStr"/>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -15257,14 +14983,8 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="n">
-        <v>15.18</v>
-      </c>
-      <c r="K437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J437" t="inlineStr"/>
+      <c r="K437" t="inlineStr"/>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -15296,14 +15016,8 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="n">
-        <v>15.18</v>
-      </c>
-      <c r="K438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J438" t="inlineStr"/>
+      <c r="K438" t="inlineStr"/>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -15335,14 +15049,8 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="n">
-        <v>15.18</v>
-      </c>
-      <c r="K439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J439" t="inlineStr"/>
+      <c r="K439" t="inlineStr"/>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -15374,14 +15082,8 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="n">
-        <v>15.18</v>
-      </c>
-      <c r="K440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J440" t="inlineStr"/>
+      <c r="K440" t="inlineStr"/>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -15413,14 +15115,8 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="n">
-        <v>15.18</v>
-      </c>
-      <c r="K441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J441" t="inlineStr"/>
+      <c r="K441" t="inlineStr"/>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -15449,17 +15145,11 @@
         <v>-6863850.273645108</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="n">
-        <v>15.18</v>
-      </c>
-      <c r="K442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J442" t="inlineStr"/>
+      <c r="K442" t="inlineStr"/>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15488,17 +15178,11 @@
         <v>-6863850.273645108</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="n">
-        <v>15.18</v>
-      </c>
-      <c r="K443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J443" t="inlineStr"/>
+      <c r="K443" t="inlineStr"/>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15527,17 +15211,11 @@
         <v>-6879943.213245108</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="n">
-        <v>15.18</v>
-      </c>
-      <c r="K444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J444" t="inlineStr"/>
+      <c r="K444" t="inlineStr"/>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15566,17 +15244,11 @@
         <v>-6879943.213245108</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="n">
-        <v>15.18</v>
-      </c>
-      <c r="K445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J445" t="inlineStr"/>
+      <c r="K445" t="inlineStr"/>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15605,17 +15277,11 @@
         <v>-6879943.213245108</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="n">
-        <v>15.18</v>
-      </c>
-      <c r="K446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J446" t="inlineStr"/>
+      <c r="K446" t="inlineStr"/>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15644,17 +15310,11 @@
         <v>-6879943.213245108</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="n">
-        <v>15.18</v>
-      </c>
-      <c r="K447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J447" t="inlineStr"/>
+      <c r="K447" t="inlineStr"/>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15683,17 +15343,11 @@
         <v>-6923865.011245108</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="n">
-        <v>15.18</v>
-      </c>
-      <c r="K448" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J448" t="inlineStr"/>
+      <c r="K448" t="inlineStr"/>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15722,17 +15376,11 @@
         <v>-6904690.422145108</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="n">
-        <v>15.18</v>
-      </c>
-      <c r="K449" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J449" t="inlineStr"/>
+      <c r="K449" t="inlineStr"/>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15761,17 +15409,11 @@
         <v>-6938593.812345108</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="n">
-        <v>15.18</v>
-      </c>
-      <c r="K450" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J450" t="inlineStr"/>
+      <c r="K450" t="inlineStr"/>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -15800,17 +15442,11 @@
         <v>-6940665.631545108</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="n">
-        <v>15.18</v>
-      </c>
-      <c r="K451" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J451" t="inlineStr"/>
+      <c r="K451" t="inlineStr"/>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -15842,14 +15478,8 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="n">
-        <v>15.18</v>
-      </c>
-      <c r="K452" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J452" t="inlineStr"/>
+      <c r="K452" t="inlineStr"/>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -15878,17 +15508,11 @@
         <v>-6970726.820745108</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="n">
-        <v>15.18</v>
-      </c>
-      <c r="K453" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J453" t="inlineStr"/>
+      <c r="K453" t="inlineStr"/>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -15920,14 +15544,8 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="n">
-        <v>15.18</v>
-      </c>
-      <c r="K454" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J454" t="inlineStr"/>
+      <c r="K454" t="inlineStr"/>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -15959,14 +15577,8 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="n">
-        <v>15.18</v>
-      </c>
-      <c r="K455" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J455" t="inlineStr"/>
+      <c r="K455" t="inlineStr"/>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -15998,14 +15610,8 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="n">
-        <v>15.18</v>
-      </c>
-      <c r="K456" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J456" t="inlineStr"/>
+      <c r="K456" t="inlineStr"/>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -16037,14 +15643,8 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="n">
-        <v>15.18</v>
-      </c>
-      <c r="K457" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J457" t="inlineStr"/>
+      <c r="K457" t="inlineStr"/>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -16076,14 +15676,8 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="n">
-        <v>15.18</v>
-      </c>
-      <c r="K458" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J458" t="inlineStr"/>
+      <c r="K458" t="inlineStr"/>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -16115,14 +15709,8 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="n">
-        <v>15.18</v>
-      </c>
-      <c r="K459" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J459" t="inlineStr"/>
+      <c r="K459" t="inlineStr"/>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -16154,14 +15742,8 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="n">
-        <v>15.18</v>
-      </c>
-      <c r="K460" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J460" t="inlineStr"/>
+      <c r="K460" t="inlineStr"/>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -16193,14 +15775,8 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="n">
-        <v>15.18</v>
-      </c>
-      <c r="K461" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J461" t="inlineStr"/>
+      <c r="K461" t="inlineStr"/>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -16232,14 +15808,8 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="n">
-        <v>15.18</v>
-      </c>
-      <c r="K462" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J462" t="inlineStr"/>
+      <c r="K462" t="inlineStr"/>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -16271,14 +15841,8 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="n">
-        <v>15.18</v>
-      </c>
-      <c r="K463" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J463" t="inlineStr"/>
+      <c r="K463" t="inlineStr"/>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -16307,17 +15871,11 @@
         <v>-6836991.165745107</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="n">
-        <v>15.18</v>
-      </c>
-      <c r="K464" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J464" t="inlineStr"/>
+      <c r="K464" t="inlineStr"/>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -16346,17 +15904,11 @@
         <v>-6799110.258245108</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="n">
-        <v>15.18</v>
-      </c>
-      <c r="K465" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J465" t="inlineStr"/>
+      <c r="K465" t="inlineStr"/>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -16385,17 +15937,11 @@
         <v>-6739323.995545108</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="n">
-        <v>15.18</v>
-      </c>
-      <c r="K466" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J466" t="inlineStr"/>
+      <c r="K466" t="inlineStr"/>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -16424,17 +15970,11 @@
         <v>-6747172.224445108</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="n">
-        <v>15.18</v>
-      </c>
-      <c r="K467" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J467" t="inlineStr"/>
+      <c r="K467" t="inlineStr"/>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -16463,17 +16003,11 @@
         <v>-6742874.430245108</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="n">
-        <v>15.18</v>
-      </c>
-      <c r="K468" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J468" t="inlineStr"/>
+      <c r="K468" t="inlineStr"/>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -16502,17 +16036,11 @@
         <v>-6785415.216845108</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="n">
-        <v>15.18</v>
-      </c>
-      <c r="K469" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J469" t="inlineStr"/>
+      <c r="K469" t="inlineStr"/>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -16541,17 +16069,11 @@
         <v>-6780290.838845109</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="n">
-        <v>15.18</v>
-      </c>
-      <c r="K470" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J470" t="inlineStr"/>
+      <c r="K470" t="inlineStr"/>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -16580,17 +16102,11 @@
         <v>-6680528.702145109</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="n">
-        <v>15.18</v>
-      </c>
-      <c r="K471" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J471" t="inlineStr"/>
+      <c r="K471" t="inlineStr"/>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -16619,17 +16135,11 @@
         <v>-6680528.702145109</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="n">
-        <v>15.18</v>
-      </c>
-      <c r="K472" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J472" t="inlineStr"/>
+      <c r="K472" t="inlineStr"/>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -16658,17 +16168,11 @@
         <v>-6666271.999245109</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="n">
-        <v>15.18</v>
-      </c>
-      <c r="K473" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J473" t="inlineStr"/>
+      <c r="K473" t="inlineStr"/>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16697,17 +16201,11 @@
         <v>-6666271.999245109</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="n">
-        <v>15.18</v>
-      </c>
-      <c r="K474" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J474" t="inlineStr"/>
+      <c r="K474" t="inlineStr"/>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16736,17 +16234,11 @@
         <v>-6666271.999245109</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="n">
-        <v>15.18</v>
-      </c>
-      <c r="K475" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J475" t="inlineStr"/>
+      <c r="K475" t="inlineStr"/>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16775,17 +16267,11 @@
         <v>-6666271.999245109</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="n">
-        <v>15.18</v>
-      </c>
-      <c r="K476" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J476" t="inlineStr"/>
+      <c r="K476" t="inlineStr"/>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -16814,17 +16300,11 @@
         <v>-6674056.250045109</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="n">
-        <v>15.18</v>
-      </c>
-      <c r="K477" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J477" t="inlineStr"/>
+      <c r="K477" t="inlineStr"/>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16853,17 +16333,11 @@
         <v>-6674056.250045109</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="n">
-        <v>15.18</v>
-      </c>
-      <c r="K478" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J478" t="inlineStr"/>
+      <c r="K478" t="inlineStr"/>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -16892,17 +16366,11 @@
         <v>-6674056.250045109</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="n">
-        <v>15.18</v>
-      </c>
-      <c r="K479" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J479" t="inlineStr"/>
+      <c r="K479" t="inlineStr"/>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -16931,17 +16399,11 @@
         <v>-6673679.797145109</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="n">
-        <v>15.18</v>
-      </c>
-      <c r="K480" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J480" t="inlineStr"/>
+      <c r="K480" t="inlineStr"/>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -16970,17 +16432,11 @@
         <v>-6673679.797145109</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="n">
-        <v>15.18</v>
-      </c>
-      <c r="K481" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J481" t="inlineStr"/>
+      <c r="K481" t="inlineStr"/>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -17009,17 +16465,11 @@
         <v>-6653104.039645108</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="n">
-        <v>15.18</v>
-      </c>
-      <c r="K482" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J482" t="inlineStr"/>
+      <c r="K482" t="inlineStr"/>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -17048,17 +16498,11 @@
         <v>-6651257.700045109</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="n">
-        <v>15.18</v>
-      </c>
-      <c r="K483" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J483" t="inlineStr"/>
+      <c r="K483" t="inlineStr"/>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -17087,17 +16531,11 @@
         <v>-6651257.700045109</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="n">
-        <v>15.18</v>
-      </c>
-      <c r="K484" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J484" t="inlineStr"/>
+      <c r="K484" t="inlineStr"/>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -17126,17 +16564,11 @@
         <v>-6651257.700045109</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="n">
-        <v>15.18</v>
-      </c>
-      <c r="K485" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J485" t="inlineStr"/>
+      <c r="K485" t="inlineStr"/>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -17165,17 +16597,11 @@
         <v>-6651186.761845109</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="n">
-        <v>15.18</v>
-      </c>
-      <c r="K486" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J486" t="inlineStr"/>
+      <c r="K486" t="inlineStr"/>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -17204,17 +16630,11 @@
         <v>-6651186.761845109</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="n">
-        <v>15.18</v>
-      </c>
-      <c r="K487" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J487" t="inlineStr"/>
+      <c r="K487" t="inlineStr"/>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -17243,17 +16663,11 @@
         <v>-6651186.761845109</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="n">
-        <v>15.18</v>
-      </c>
-      <c r="K488" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J488" t="inlineStr"/>
+      <c r="K488" t="inlineStr"/>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -17282,17 +16696,11 @@
         <v>-6979426.255745109</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="n">
-        <v>15.18</v>
-      </c>
-      <c r="K489" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J489" t="inlineStr"/>
+      <c r="K489" t="inlineStr"/>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -17321,17 +16729,11 @@
         <v>-6979426.255745109</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="n">
-        <v>15.18</v>
-      </c>
-      <c r="K490" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J490" t="inlineStr"/>
+      <c r="K490" t="inlineStr"/>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -17360,17 +16762,11 @@
         <v>-6975942.007745109</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="n">
-        <v>15.18</v>
-      </c>
-      <c r="K491" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J491" t="inlineStr"/>
+      <c r="K491" t="inlineStr"/>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -17399,17 +16795,11 @@
         <v>-7009546.35804511</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="n">
-        <v>15.18</v>
-      </c>
-      <c r="K492" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J492" t="inlineStr"/>
+      <c r="K492" t="inlineStr"/>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -17438,17 +16828,11 @@
         <v>-6853796.084045109</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="n">
-        <v>15.18</v>
-      </c>
-      <c r="K493" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J493" t="inlineStr"/>
+      <c r="K493" t="inlineStr"/>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -17477,17 +16861,11 @@
         <v>-6819793.220745109</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="n">
-        <v>15.18</v>
-      </c>
-      <c r="K494" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J494" t="inlineStr"/>
+      <c r="K494" t="inlineStr"/>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -17516,17 +16894,11 @@
         <v>-6353715.144945109</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="n">
-        <v>15.18</v>
-      </c>
-      <c r="K495" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J495" t="inlineStr"/>
+      <c r="K495" t="inlineStr"/>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -17555,17 +16927,11 @@
         <v>-6353715.144945109</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="n">
-        <v>15.18</v>
-      </c>
-      <c r="K496" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J496" t="inlineStr"/>
+      <c r="K496" t="inlineStr"/>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -17594,17 +16960,11 @@
         <v>-6870095.294645109</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="n">
-        <v>15.18</v>
-      </c>
-      <c r="K497" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J497" t="inlineStr"/>
+      <c r="K497" t="inlineStr"/>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -17633,17 +16993,11 @@
         <v>-6836878.154945109</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="n">
-        <v>15.18</v>
-      </c>
-      <c r="K498" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J498" t="inlineStr"/>
+      <c r="K498" t="inlineStr"/>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -17672,23 +17026,17 @@
         <v>-6838814.400145109</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="n">
-        <v>15.18</v>
-      </c>
-      <c r="K499" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J499" t="inlineStr"/>
+      <c r="K499" t="inlineStr"/>
       <c r="L499" t="n">
         <v>1</v>
       </c>
       <c r="M499" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-13 BackTest SOC.xlsx
+++ b/BackTest/2020-01-13 BackTest SOC.xlsx
@@ -616,7 +616,7 @@
         <v>-665951.1508114036</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-665951.1508114036</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-976485.9391114037</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-1060149.279235399</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-1139652.766435399</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-1094047.771876275</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-1094047.771876275</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-1094047.771876275</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-1094047.771876275</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-1097130.696476275</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-1097130.696476275</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-1097130.696476275</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-1095719.538076275</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-1095489.940876275</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-1094078.782476275</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-1092712.060676275</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-1095719.538076275</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-1095719.538076275</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-1096589.538076275</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-1096589.538076275</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-1096589.538076275</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-1152011.543376275</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-1146011.543376275</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-1146046.543376275</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-1146010.543376275</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-1146010.543376275</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-1146010.543376275</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-1144510.543376275</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-1144626.181004829</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-1144725.967704829</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-1142291.934904829</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-1283040.429904829</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-1276974.623804829</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-1277019.623804829</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-1276839.623804829</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-1277082.195032483</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-1277051.195032483</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-1277051.195032483</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-1326619.376532482</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-1364578.594632482</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-1364578.594632482</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-1298374.905132482</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-1298374.905132482</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-1328193.604032482</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-1461139.296332482</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-1585832.835232482</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-1585832.835232482</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-1745302.500120365</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-1745302.500120365</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-1745302.500120365</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-1829442.287820365</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-4597991.356763884</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-4486075.649715322</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-4560248.727115322</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-4560248.727115322</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-4560248.727115322</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>-4305106.165038625</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>-4305106.165038625</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>-4304903.305938625</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>-4304574.599138625</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>-4304426.113638625</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>-4317820.609771379</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -10582,7 +10582,7 @@
         <v>-5762876.208786285</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10615,7 +10615,7 @@
         <v>-5786869.611586285</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10648,7 +10648,7 @@
         <v>-5775869.611586285</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10780,7 +10780,7 @@
         <v>-5804424.814386285</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -10846,7 +10846,7 @@
         <v>-5804625.665086285</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -10912,7 +10912,7 @@
         <v>-5875782.820786285</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -10945,7 +10945,7 @@
         <v>-5899389.098786285</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -10978,7 +10978,7 @@
         <v>-6042470.508786285</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11011,7 +11011,7 @@
         <v>-6042387.356786286</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11044,7 +11044,7 @@
         <v>-6042387.356786286</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11077,7 +11077,7 @@
         <v>-6051305.731686286</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11110,7 +11110,7 @@
         <v>-6067387.356786286</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11143,7 +11143,7 @@
         <v>-6067387.356786286</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11176,7 +11176,7 @@
         <v>-6067356.216786286</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11209,7 +11209,7 @@
         <v>-6067356.216786286</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11242,7 +11242,7 @@
         <v>-6068633.551586286</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11275,7 +11275,7 @@
         <v>-6068633.551586286</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11440,7 +11440,7 @@
         <v>-6083447.951886287</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
         <v>-6083447.951886287</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11506,7 +11506,7 @@
         <v>-5842858.560086287</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11539,7 +11539,7 @@
         <v>-5911394.976386286</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11572,7 +11572,7 @@
         <v>-5911394.976386286</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11605,7 +11605,7 @@
         <v>-5936678.457586287</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11638,7 +11638,7 @@
         <v>-5936678.457586287</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -11671,7 +11671,7 @@
         <v>-6141425.723086286</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -11704,7 +11704,7 @@
         <v>-6146892.907086287</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -11737,7 +11737,7 @@
         <v>-6004827.992786286</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -11935,7 +11935,7 @@
         <v>-6190906.553050236</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -11968,7 +11968,7 @@
         <v>-6357296.964950236</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12001,7 +12001,7 @@
         <v>-6407296.964950236</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12034,7 +12034,7 @@
         <v>-6509907.435450235</v>
       </c>
       <c r="H353" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12067,7 +12067,7 @@
         <v>-6571808.711950235</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12100,7 +12100,7 @@
         <v>-6554244.973150235</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12133,7 +12133,7 @@
         <v>-6720369.353450235</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12166,7 +12166,7 @@
         <v>-7421802.629450235</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12199,7 +12199,7 @@
         <v>-7675027.156850235</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12232,7 +12232,7 @@
         <v>-7324044.462450234</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12397,10 +12397,14 @@
         <v>-7783100.657550234</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
-      </c>
-      <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I364" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="J364" t="n">
+        <v>15.18</v>
+      </c>
       <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
@@ -12430,11 +12434,19 @@
         <v>-7795992.967650235</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
-      </c>
-      <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I365" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="J365" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12463,11 +12475,19 @@
         <v>-7795895.826649585</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
-      </c>
-      <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I366" t="n">
+        <v>15.27</v>
+      </c>
+      <c r="J366" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -12501,7 +12521,9 @@
       <c r="I367" t="n">
         <v>15.39</v>
       </c>
-      <c r="J367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>15.18</v>
+      </c>
       <c r="K367" t="inlineStr">
         <is>
           <t>매수 체결</t>
@@ -12540,7 +12562,9 @@
       <c r="I368" t="n">
         <v>15.4</v>
       </c>
-      <c r="J368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>15.18</v>
+      </c>
       <c r="K368" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12574,10 +12598,14 @@
         <v>-7602744.952849586</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
-      </c>
-      <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I369" t="n">
+        <v>15.55</v>
+      </c>
+      <c r="J369" t="n">
+        <v>15.18</v>
+      </c>
       <c r="K369" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12614,7 +12642,9 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>15.18</v>
+      </c>
       <c r="K370" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12651,7 +12681,9 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>15.18</v>
+      </c>
       <c r="K371" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12688,7 +12720,9 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>15.18</v>
+      </c>
       <c r="K372" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12725,7 +12759,9 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>15.18</v>
+      </c>
       <c r="K373" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12762,7 +12798,9 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>15.18</v>
+      </c>
       <c r="K374" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12799,7 +12837,9 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>15.18</v>
+      </c>
       <c r="K375" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12836,7 +12876,9 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>15.18</v>
+      </c>
       <c r="K376" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12873,7 +12915,9 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>15.18</v>
+      </c>
       <c r="K377" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12910,7 +12954,9 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>15.18</v>
+      </c>
       <c r="K378" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12947,7 +12993,9 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>15.18</v>
+      </c>
       <c r="K379" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12984,7 +13032,9 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>15.18</v>
+      </c>
       <c r="K380" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13021,7 +13071,9 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>15.18</v>
+      </c>
       <c r="K381" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13058,7 +13110,9 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>15.18</v>
+      </c>
       <c r="K382" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13095,7 +13149,9 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>15.18</v>
+      </c>
       <c r="K383" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13132,7 +13188,9 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>15.18</v>
+      </c>
       <c r="K384" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13166,10 +13224,14 @@
         <v>-7285405.646445127</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
-      </c>
-      <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I385" t="n">
+        <v>15.49</v>
+      </c>
+      <c r="J385" t="n">
+        <v>15.18</v>
+      </c>
       <c r="K385" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13206,7 +13268,9 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>15.18</v>
+      </c>
       <c r="K386" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13243,7 +13307,9 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>15.18</v>
+      </c>
       <c r="K387" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13280,7 +13346,9 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>15.18</v>
+      </c>
       <c r="K388" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13317,7 +13385,9 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>15.18</v>
+      </c>
       <c r="K389" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13354,7 +13424,9 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>15.18</v>
+      </c>
       <c r="K390" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13391,7 +13463,9 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>15.18</v>
+      </c>
       <c r="K391" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13428,7 +13502,9 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>15.18</v>
+      </c>
       <c r="K392" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13465,7 +13541,9 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>15.18</v>
+      </c>
       <c r="K393" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13499,10 +13577,14 @@
         <v>-7159575.579142563</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
-      </c>
-      <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I394" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="J394" t="n">
+        <v>15.18</v>
+      </c>
       <c r="K394" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13539,7 +13621,9 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>15.18</v>
+      </c>
       <c r="K395" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13576,7 +13660,9 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>15.18</v>
+      </c>
       <c r="K396" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13613,7 +13699,9 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>15.18</v>
+      </c>
       <c r="K397" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13650,7 +13738,9 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>15.18</v>
+      </c>
       <c r="K398" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13684,10 +13774,14 @@
         <v>-7160653.253942563</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
-      </c>
-      <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I399" t="n">
+        <v>15.52</v>
+      </c>
+      <c r="J399" t="n">
+        <v>15.18</v>
+      </c>
       <c r="K399" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13721,10 +13815,14 @@
         <v>-7160653.253942563</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
-      </c>
-      <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I400" t="n">
+        <v>15.52</v>
+      </c>
+      <c r="J400" t="n">
+        <v>15.18</v>
+      </c>
       <c r="K400" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13758,10 +13856,14 @@
         <v>-7160653.253942563</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
-      </c>
-      <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I401" t="n">
+        <v>15.52</v>
+      </c>
+      <c r="J401" t="n">
+        <v>15.18</v>
+      </c>
       <c r="K401" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13795,10 +13897,14 @@
         <v>-7160653.253942563</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
-      </c>
-      <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I402" t="n">
+        <v>15.52</v>
+      </c>
+      <c r="J402" t="n">
+        <v>15.18</v>
+      </c>
       <c r="K402" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13832,10 +13938,14 @@
         <v>-7160653.253942563</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
-      </c>
-      <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I403" t="n">
+        <v>15.52</v>
+      </c>
+      <c r="J403" t="n">
+        <v>15.18</v>
+      </c>
       <c r="K403" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13869,10 +13979,14 @@
         <v>-6819824.322542563</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
-      </c>
-      <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I404" t="n">
+        <v>15.52</v>
+      </c>
+      <c r="J404" t="n">
+        <v>15.18</v>
+      </c>
       <c r="K404" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13906,10 +14020,14 @@
         <v>-6842260.885642563</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
-      </c>
-      <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I405" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="J405" t="n">
+        <v>15.18</v>
+      </c>
       <c r="K405" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13943,10 +14061,14 @@
         <v>-6842260.885642563</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
-      </c>
-      <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I406" t="n">
+        <v>15.54</v>
+      </c>
+      <c r="J406" t="n">
+        <v>15.18</v>
+      </c>
       <c r="K406" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13980,10 +14102,14 @@
         <v>-6829536.007645108</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
-      </c>
-      <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I407" t="n">
+        <v>15.54</v>
+      </c>
+      <c r="J407" t="n">
+        <v>15.18</v>
+      </c>
       <c r="K407" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14020,7 +14146,9 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
+      <c r="J408" t="n">
+        <v>15.18</v>
+      </c>
       <c r="K408" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14054,16 +14182,20 @@
         <v>-6911692.504545107</v>
       </c>
       <c r="H409" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
+      <c r="J409" t="n">
+        <v>15.18</v>
+      </c>
       <c r="K409" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L409" t="inlineStr"/>
+      <c r="L409" t="n">
+        <v>1</v>
+      </c>
       <c r="M409" t="inlineStr"/>
     </row>
     <row r="410">
@@ -14092,8 +14224,14 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="J410" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14122,11 +14260,19 @@
         <v>-6983222.788845108</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
-      </c>
-      <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I411" t="n">
+        <v>15.55</v>
+      </c>
+      <c r="J411" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14155,11 +14301,19 @@
         <v>-6983322.788845108</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
-      </c>
-      <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I412" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="J412" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14188,11 +14342,19 @@
         <v>-6983322.788845108</v>
       </c>
       <c r="H413" t="n">
-        <v>2</v>
-      </c>
-      <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I413" t="n">
+        <v>15.58</v>
+      </c>
+      <c r="J413" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14221,11 +14383,19 @@
         <v>-6983222.788845108</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
-      </c>
-      <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I414" t="n">
+        <v>15.58</v>
+      </c>
+      <c r="J414" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14254,11 +14424,19 @@
         <v>-6868966.743445108</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
-      </c>
-      <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I415" t="n">
+        <v>15.65</v>
+      </c>
+      <c r="J415" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14287,11 +14465,19 @@
         <v>-6868966.743445108</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
-      </c>
-      <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I416" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="J416" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14320,11 +14506,19 @@
         <v>-6868966.743445108</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
-      </c>
-      <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I417" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="J417" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14353,11 +14547,19 @@
         <v>-6868966.743445108</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
-      </c>
-      <c r="I418" t="inlineStr"/>
-      <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I418" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="J418" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14386,11 +14588,19 @@
         <v>-6868966.743445108</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
-      </c>
-      <c r="I419" t="inlineStr"/>
-      <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I419" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="J419" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14419,11 +14629,19 @@
         <v>-6868966.743445108</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
-      </c>
-      <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I420" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="J420" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14452,11 +14670,19 @@
         <v>-6868966.743445108</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
-      </c>
-      <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I421" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="J421" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14485,11 +14711,19 @@
         <v>-6868966.743445108</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
-      </c>
-      <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I422" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="J422" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14518,11 +14752,19 @@
         <v>-6864351.539945108</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
-      </c>
-      <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I423" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="J423" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14551,11 +14793,19 @@
         <v>-6654488.854145108</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
-      </c>
-      <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I424" t="n">
+        <v>15.72</v>
+      </c>
+      <c r="J424" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -14587,8 +14837,14 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="J425" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -14620,8 +14876,14 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="J426" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -14653,8 +14915,14 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="J427" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -14686,8 +14954,14 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="J428" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -14719,8 +14993,14 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="J429" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -14752,8 +15032,14 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="J430" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -14785,8 +15071,14 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="J431" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -14818,8 +15110,14 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="J432" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -14848,11 +15146,19 @@
         <v>-6773529.743745107</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
-      </c>
-      <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I433" t="n">
+        <v>15.63</v>
+      </c>
+      <c r="J433" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -14881,11 +15187,19 @@
         <v>-6843433.817745107</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
-      </c>
-      <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I434" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="J434" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -14914,11 +15228,17 @@
         <v>-6961561.444045107</v>
       </c>
       <c r="H435" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="J435" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -14947,11 +15267,19 @@
         <v>-6902633.744245107</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
-      </c>
-      <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I436" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="J436" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -14980,11 +15308,19 @@
         <v>-6920073.973745108</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
-      </c>
-      <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I437" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="J437" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -15013,11 +15349,19 @@
         <v>-6896991.422845108</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
-      </c>
-      <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I438" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="J438" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -15046,11 +15390,19 @@
         <v>-6904676.904845107</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
-      </c>
-      <c r="I439" t="inlineStr"/>
-      <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I439" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="J439" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -15079,11 +15431,19 @@
         <v>-6904676.904845107</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
-      </c>
-      <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I440" t="n">
+        <v>15.65</v>
+      </c>
+      <c r="J440" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -15112,11 +15472,19 @@
         <v>-6863850.273645108</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
-      </c>
-      <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I441" t="n">
+        <v>15.65</v>
+      </c>
+      <c r="J441" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -15145,11 +15513,19 @@
         <v>-6863850.273645108</v>
       </c>
       <c r="H442" t="n">
-        <v>2</v>
-      </c>
-      <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I442" t="n">
+        <v>15.74</v>
+      </c>
+      <c r="J442" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15178,11 +15554,17 @@
         <v>-6863850.273645108</v>
       </c>
       <c r="H443" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="J443" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15211,11 +15593,17 @@
         <v>-6879943.213245108</v>
       </c>
       <c r="H444" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="J444" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15244,11 +15632,19 @@
         <v>-6879943.213245108</v>
       </c>
       <c r="H445" t="n">
-        <v>2</v>
-      </c>
-      <c r="I445" t="inlineStr"/>
-      <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I445" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="J445" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15277,11 +15673,19 @@
         <v>-6879943.213245108</v>
       </c>
       <c r="H446" t="n">
-        <v>2</v>
-      </c>
-      <c r="I446" t="inlineStr"/>
-      <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I446" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="J446" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15310,11 +15714,19 @@
         <v>-6879943.213245108</v>
       </c>
       <c r="H447" t="n">
-        <v>2</v>
-      </c>
-      <c r="I447" t="inlineStr"/>
-      <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I447" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="J447" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15343,11 +15755,19 @@
         <v>-6923865.011245108</v>
       </c>
       <c r="H448" t="n">
-        <v>2</v>
-      </c>
-      <c r="I448" t="inlineStr"/>
-      <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I448" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="J448" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15376,11 +15796,19 @@
         <v>-6904690.422145108</v>
       </c>
       <c r="H449" t="n">
-        <v>2</v>
-      </c>
-      <c r="I449" t="inlineStr"/>
-      <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I449" t="n">
+        <v>15.69</v>
+      </c>
+      <c r="J449" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15409,11 +15837,19 @@
         <v>-6938593.812345108</v>
       </c>
       <c r="H450" t="n">
-        <v>2</v>
-      </c>
-      <c r="I450" t="inlineStr"/>
-      <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I450" t="n">
+        <v>15.73</v>
+      </c>
+      <c r="J450" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -15442,11 +15878,19 @@
         <v>-6940665.631545108</v>
       </c>
       <c r="H451" t="n">
-        <v>2</v>
-      </c>
-      <c r="I451" t="inlineStr"/>
-      <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I451" t="n">
+        <v>15.72</v>
+      </c>
+      <c r="J451" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -15475,11 +15919,19 @@
         <v>-6940625.631545108</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
-      </c>
-      <c r="I452" t="inlineStr"/>
-      <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I452" t="n">
+        <v>15.69</v>
+      </c>
+      <c r="J452" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -15508,11 +15960,19 @@
         <v>-6970726.820745108</v>
       </c>
       <c r="H453" t="n">
-        <v>2</v>
-      </c>
-      <c r="I453" t="inlineStr"/>
-      <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I453" t="n">
+        <v>15.72</v>
+      </c>
+      <c r="J453" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -15541,11 +16001,19 @@
         <v>-6992378.862745108</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
-      </c>
-      <c r="I454" t="inlineStr"/>
-      <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I454" t="n">
+        <v>15.69</v>
+      </c>
+      <c r="J454" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -15574,11 +16042,19 @@
         <v>-6992378.862745108</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
-      </c>
-      <c r="I455" t="inlineStr"/>
-      <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I455" t="n">
+        <v>15.67</v>
+      </c>
+      <c r="J455" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -15607,11 +16083,19 @@
         <v>-7012346.847345108</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
-      </c>
-      <c r="I456" t="inlineStr"/>
-      <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I456" t="n">
+        <v>15.67</v>
+      </c>
+      <c r="J456" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -15640,11 +16124,19 @@
         <v>-6998902.071845108</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
-      </c>
-      <c r="I457" t="inlineStr"/>
-      <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I457" t="n">
+        <v>15.66</v>
+      </c>
+      <c r="J457" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -15673,11 +16165,19 @@
         <v>-7127420.409545108</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
-      </c>
-      <c r="I458" t="inlineStr"/>
-      <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I458" t="n">
+        <v>15.69</v>
+      </c>
+      <c r="J458" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -15706,11 +16206,19 @@
         <v>-6932846.418945108</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
-      </c>
-      <c r="I459" t="inlineStr"/>
-      <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I459" t="n">
+        <v>15.67</v>
+      </c>
+      <c r="J459" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -15739,11 +16247,19 @@
         <v>-6932846.418945108</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
-      </c>
-      <c r="I460" t="inlineStr"/>
-      <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I460" t="n">
+        <v>15.72</v>
+      </c>
+      <c r="J460" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -15772,11 +16288,19 @@
         <v>-6892784.156745108</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
-      </c>
-      <c r="I461" t="inlineStr"/>
-      <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I461" t="n">
+        <v>15.72</v>
+      </c>
+      <c r="J461" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -15805,11 +16329,19 @@
         <v>-6857524.731345108</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
-      </c>
-      <c r="I462" t="inlineStr"/>
-      <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I462" t="n">
+        <v>15.73</v>
+      </c>
+      <c r="J462" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -15838,11 +16370,19 @@
         <v>-6857524.731345108</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
-      </c>
-      <c r="I463" t="inlineStr"/>
-      <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I463" t="n">
+        <v>15.76</v>
+      </c>
+      <c r="J463" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -15871,11 +16411,19 @@
         <v>-6836991.165745107</v>
       </c>
       <c r="H464" t="n">
-        <v>2</v>
-      </c>
-      <c r="I464" t="inlineStr"/>
-      <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I464" t="n">
+        <v>15.76</v>
+      </c>
+      <c r="J464" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -15904,11 +16452,19 @@
         <v>-6799110.258245108</v>
       </c>
       <c r="H465" t="n">
-        <v>2</v>
-      </c>
-      <c r="I465" t="inlineStr"/>
-      <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I465" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="J465" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -15937,11 +16493,17 @@
         <v>-6739323.995545108</v>
       </c>
       <c r="H466" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="J466" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -15970,11 +16532,17 @@
         <v>-6747172.224445108</v>
       </c>
       <c r="H467" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="J467" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -16003,11 +16571,17 @@
         <v>-6742874.430245108</v>
       </c>
       <c r="H468" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="J468" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -16036,11 +16610,17 @@
         <v>-6785415.216845108</v>
       </c>
       <c r="H469" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="J469" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -16069,11 +16649,17 @@
         <v>-6780290.838845109</v>
       </c>
       <c r="H470" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="J470" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -16102,11 +16688,17 @@
         <v>-6680528.702145109</v>
       </c>
       <c r="H471" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="J471" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -16135,11 +16727,17 @@
         <v>-6680528.702145109</v>
       </c>
       <c r="H472" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="J472" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -16168,11 +16766,17 @@
         <v>-6666271.999245109</v>
       </c>
       <c r="H473" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="J473" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16201,11 +16805,17 @@
         <v>-6666271.999245109</v>
       </c>
       <c r="H474" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="J474" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16234,11 +16844,17 @@
         <v>-6666271.999245109</v>
       </c>
       <c r="H475" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="J475" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16267,11 +16883,17 @@
         <v>-6666271.999245109</v>
       </c>
       <c r="H476" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="J476" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -16300,11 +16922,17 @@
         <v>-6674056.250045109</v>
       </c>
       <c r="H477" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="J477" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16333,11 +16961,17 @@
         <v>-6674056.250045109</v>
       </c>
       <c r="H478" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="J478" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -16366,11 +17000,17 @@
         <v>-6674056.250045109</v>
       </c>
       <c r="H479" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="J479" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -16399,11 +17039,17 @@
         <v>-6673679.797145109</v>
       </c>
       <c r="H480" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="J480" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -16432,11 +17078,19 @@
         <v>-6673679.797145109</v>
       </c>
       <c r="H481" t="n">
-        <v>2</v>
-      </c>
-      <c r="I481" t="inlineStr"/>
-      <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I481" t="n">
+        <v>15.91</v>
+      </c>
+      <c r="J481" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -16465,11 +17119,17 @@
         <v>-6653104.039645108</v>
       </c>
       <c r="H482" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="J482" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -16498,11 +17158,17 @@
         <v>-6651257.700045109</v>
       </c>
       <c r="H483" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="J483" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -16531,11 +17197,17 @@
         <v>-6651257.700045109</v>
       </c>
       <c r="H484" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="J484" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -16564,11 +17236,17 @@
         <v>-6651257.700045109</v>
       </c>
       <c r="H485" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="J485" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -16597,11 +17275,17 @@
         <v>-6651186.761845109</v>
       </c>
       <c r="H486" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="J486" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -16630,11 +17314,17 @@
         <v>-6651186.761845109</v>
       </c>
       <c r="H487" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="J487" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -16663,11 +17353,17 @@
         <v>-6651186.761845109</v>
       </c>
       <c r="H488" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="J488" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -16696,11 +17392,17 @@
         <v>-6979426.255745109</v>
       </c>
       <c r="H489" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="J489" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -16729,11 +17431,17 @@
         <v>-6979426.255745109</v>
       </c>
       <c r="H490" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="J490" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -16762,11 +17470,17 @@
         <v>-6975942.007745109</v>
       </c>
       <c r="H491" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="J491" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -16795,11 +17509,17 @@
         <v>-7009546.35804511</v>
       </c>
       <c r="H492" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+      <c r="J492" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -16828,11 +17548,17 @@
         <v>-6853796.084045109</v>
       </c>
       <c r="H493" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+      <c r="J493" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -16861,11 +17587,17 @@
         <v>-6819793.220745109</v>
       </c>
       <c r="H494" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+      <c r="J494" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -16894,11 +17626,17 @@
         <v>-6353715.144945109</v>
       </c>
       <c r="H495" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+      <c r="J495" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -16927,11 +17665,17 @@
         <v>-6353715.144945109</v>
       </c>
       <c r="H496" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
+      <c r="J496" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -16960,11 +17704,17 @@
         <v>-6870095.294645109</v>
       </c>
       <c r="H497" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+      <c r="J497" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -16993,11 +17743,17 @@
         <v>-6836878.154945109</v>
       </c>
       <c r="H498" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+      <c r="J498" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -17026,11 +17782,17 @@
         <v>-6838814.400145109</v>
       </c>
       <c r="H499" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
+      <c r="J499" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L499" t="n">
         <v>1</v>
       </c>
